--- a/src/main/resources/script/db/init-data/hzero_monitor/hzero_monitor/hzero-audit-config.xlsx
+++ b/src/main/resources/script/db/init-data/hzero_monitor/hzero_monitor/hzero-audit-config.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="158">
   <si>
     <r>
       <rPr>
@@ -1995,7 +1995,7 @@
     <t>公式=外键引用</t>
   </si>
   <si>
-    <t>2020-06-22</t>
+    <t>2020-06-24</t>
   </si>
   <si>
     <t>hzero</t>
@@ -2287,6 +2287,36 @@
   </si>
   <si>
     <t>2020-06-22 14:13:51.0</t>
+  </si>
+  <si>
+    <t>hmnt_audit_op_config-24</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>'  [' + #_userDetails.getRealName() + '] 停用用户'</t>
+  </si>
+  <si>
+    <t>2020-06-24 16:04:07.0</t>
+  </si>
+  <si>
+    <t>hmnt_audit_op_config-25</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>2020-06-24 16:05:09.0</t>
+  </si>
+  <si>
+    <t>hmnt_audit_op_config-26</t>
+  </si>
+  <si>
+    <t>597</t>
+  </si>
+  <si>
+    <t>2020-06-24 16:05:47.0</t>
   </si>
 </sst>
 </file>
@@ -3269,7 +3299,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:P23"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3958,6 +3988,120 @@
         <v>68</v>
       </c>
     </row>
+    <row r="24">
+      <c r="E24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" t="s">
+        <v>149</v>
+      </c>
+      <c r="G24" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I24" t="s">
+        <v>150</v>
+      </c>
+      <c r="J24" t="s">
+        <v>70</v>
+      </c>
+      <c r="K24" t="s">
+        <v>68</v>
+      </c>
+      <c r="L24" t="s">
+        <v>151</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24" t="s">
+        <v>68</v>
+      </c>
+      <c r="O24" t="s">
+        <v>151</v>
+      </c>
+      <c r="P24" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="E25" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" t="s">
+        <v>68</v>
+      </c>
+      <c r="H25" t="s">
+        <v>68</v>
+      </c>
+      <c r="I25" t="s">
+        <v>150</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>68</v>
+      </c>
+      <c r="L25" t="s">
+        <v>154</v>
+      </c>
+      <c r="M25" t="s">
+        <v>68</v>
+      </c>
+      <c r="N25" t="s">
+        <v>68</v>
+      </c>
+      <c r="O25" t="s">
+        <v>154</v>
+      </c>
+      <c r="P25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="E26" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" t="s">
+        <v>68</v>
+      </c>
+      <c r="H26" t="s">
+        <v>68</v>
+      </c>
+      <c r="I26" t="s">
+        <v>150</v>
+      </c>
+      <c r="J26" t="s">
+        <v>70</v>
+      </c>
+      <c r="K26" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" t="s">
+        <v>157</v>
+      </c>
+      <c r="M26" t="s">
+        <v>68</v>
+      </c>
+      <c r="N26" t="s">
+        <v>68</v>
+      </c>
+      <c r="O26" t="s">
+        <v>157</v>
+      </c>
+      <c r="P26" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
